--- a/test_case/testCase.xlsx
+++ b/test_case/testCase.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonworkspace\PycharmProjects\dds\DdsApiAutoTest\test_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonworkspace\dds\DdsApiAutoTest\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B82104-06C3-466C-93D0-6CE1A541FCE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1D20E-B400-4BC0-9554-033232D2BBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="525" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -73,13 +73,54 @@
   <si>
     <t>RESULT</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/data/dataOnlineAnalysis</t>
+  </si>
+  <si>
+    <t>数据概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ow_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据上线概览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POST</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "area": "",
+ "entryProvince": "",
+ "entryCity": "",
+ "powerType": "",
+ "driveRangeLevel": "",
+ "brand": "",
+ "vehCategory": "",
+ "startDate": "2020-01",
+ "endDate": "2020-11"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Content-Type":"application/json"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -100,6 +141,12 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFAB0F3A"/>
+      <name val="Consolas"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="3">
@@ -143,13 +190,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -431,14 +482,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1:M1048576"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.75" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -478,6 +532,35 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/testCase.xlsx
+++ b/test_case/testCase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonworkspace\dds\DdsApiAutoTest\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1D20E-B400-4BC0-9554-033232D2BBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6F925D-0440-46DD-B341-244C65F20A30}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="66">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -59,15 +59,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSG</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -115,12 +107,256 @@
     <t>{"Content-Type":"application/json"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>CONTENT-TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESPONSE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "data": {
+  "xaxis": [],
+  "series": []
+ },
+ "error": true,
+ "errorMsg": "",
+ "status": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ERROR_MSG</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATA_CLASS</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RTM数据质量概览</t>
+  </si>
+  <si>
+    <t>/data/dataQualityAnalysis</t>
+  </si>
+  <si>
+    <t>关键字段有效值占比</t>
+  </si>
+  <si>
+    <t>/data/keyFieldAnalysis</t>
+  </si>
+  <si>
+    <t>车辆接入概览</t>
+  </si>
+  <si>
+    <t>/data/vehEntryAnalysis</t>
+  </si>
+  <si>
+    <t>{
+ "area": "",
+ "cityLevel": "",
+ "entryProvince": "",
+ "entryCity": "",
+ "powerType": "",
+ "driveRangeLevel": "",
+ "brand": "",
+ "vehCategory": "",
+ "startDate": "2020-01",
+ "endDate": "2020-12"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ow_02</t>
+  </si>
+  <si>
+    <t>ow_03</t>
+  </si>
+  <si>
+    <t>ow_04</t>
+  </si>
+  <si>
+    <t>{
+ "data": {
+  "xaxis": [],
+  "series": []
+ },
+ "error": true,
+ "errorMsg": "",
+ "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+ "data": {
+  "xaxis": [],
+  "series": []
+ },
+ "error": true,
+ "errorMsg": "",
+ "status": 2
+}</t>
+  </si>
+  <si>
+    <t>{
+ "data": {
+  "xaxis": [],
+  "series": []
+ },
+ "error": true,
+ "errorMsg": "",
+ "status": 3
+}</t>
+  </si>
+  <si>
+    <t>{
+ "vehModel": "a",
+ "startDate": "2020-01",
+ "endDate": "2020-12"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "vehModel": "a",
+ "field": "rate_cstat_valid",
+ "startDate": "2020-01",
+ "endDate": "2020-12"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据概览查询条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地域列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/area/list</t>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+ "data": {
+  "cities": [],
+  "provinces": [],
+  "regions": [],
+  "tiers": []
+ },
+ "error": true,
+ "errorMsg": "",
+ "status": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Area</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ow_05</t>
+  </si>
+  <si>
+    <t>品牌列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/brand/list</t>
+  </si>
+  <si>
+    <t>{
+ "data": [],
+ "error": true,
+ "errorMsg": "",
+ "status": 0
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车辆用途列表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/category/list</t>
+  </si>
+  <si>
+    <t>ow_06</t>
+  </si>
+  <si>
+    <t>ow_07</t>
+  </si>
+  <si>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>续航里程级别字典列表</t>
+  </si>
+  <si>
+    <t>/driveRangeLevel/list</t>
+  </si>
+  <si>
+    <t>驱动类型字典列表</t>
+  </si>
+  <si>
+    <t>/powerType/list</t>
+  </si>
+  <si>
+    <t>车型列表</t>
+  </si>
+  <si>
+    <t>/vehModel/list</t>
+  </si>
+  <si>
+    <t>ow_08</t>
+  </si>
+  <si>
+    <t>ow_09</t>
+  </si>
+  <si>
+    <t>ow_10</t>
+  </si>
+  <si>
+    <t>{
+ "data": [],
+ "error": true,
+ "errorMsg": "",
+ "status": 1
+}</t>
+  </si>
+  <si>
+    <t>{
+ "data": [],
+ "error": true,
+ "errorMsg": "",
+ "status": 2
+}</t>
+  </si>
+  <si>
+    <t>{
+ "data": [],
+ "error": true,
+ "errorMsg": "",
+ "status": 3
+}</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,10 +379,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FFAB0F3A"/>
       <name val="Consolas"/>
       <family val="3"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF000000"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -190,7 +439,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,10 +447,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -482,21 +741,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
     <col min="8" max="8" width="52.75" customWidth="1"/>
+    <col min="9" max="9" width="15.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -522,45 +787,348 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4">
+        <v>200</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" ht="160.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4">
+        <v>200</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
     </row>
-    <row r="2" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="4" spans="1:14" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F4" s="4"/>
+      <c r="G4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="J4" s="4">
+        <v>200</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+    </row>
+    <row r="5" spans="1:14" ht="171" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
+      <c r="H5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4">
         <v>200</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="1:14" ht="228" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4">
+        <v>200</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4">
+        <v>200</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L7" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="114" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4">
+        <v>200</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4">
+        <v>200</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="4">
+        <v>200</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="4">
+        <v>200</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L11" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/test_case/testCase.xlsx
+++ b/test_case/testCase.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonworkspace\dds\DdsApiAutoTest\test_case\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pythonworkspace\ApiAutoTest\test_case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AC1D20E-B400-4BC0-9554-033232D2BBB3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026C09CD-005C-4676-90A6-1BD760600FF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2595" yWindow="2160" windowWidth="24270" windowHeight="12870" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="case" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="132">
   <si>
     <t>ID</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -55,72 +55,440 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>CONTENT-TYPE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>GET</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>application/text</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/battery/status/summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询存在的vin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LS6A2E0E0KA002232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询不存在的vin数据</t>
+  </si>
+  <si>
+    <t>vin=11111111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传入无效的Authorization参数</t>
+  </si>
+  <si>
+    <t>Authorization参数为空</t>
+  </si>
+  <si>
+    <t>vin参数为空</t>
+  </si>
+  <si>
+    <t>vin=LS6A2E0E0KA002232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LS6A2E0E0KA002232</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization:11111111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Authorization:Bearer $</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无vin参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无Authorization参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/battery/resistance/volt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/battery/cell/history/info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/drive/temp/mileage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/monthly/equivalent/mileage/index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/twice/charge/equivalent/endurance/mileage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/year/average/drive/mileage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>接口7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询存在的vin1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询存在的vin2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=L6T78F2Z0JY002809</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询存在的vin3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=L6T78F2Z0JY002812</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询存在的vin4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=L6T78F2Z0JY005922</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=JTHAAABH1L2000378</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=JTHAAABH1L2001188</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LB378Y4W2JA186176</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LKJTBKBY6HF002994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=L66CBC4E6H1GT0309</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LDPGABAC4HB108311</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LDP51B962JE009609</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LDP51B962JE009805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LDP51B962JE010114</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LBES6AXD2KW000293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LBES6AXD2KW000360</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LBES6AXD2KW000407</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LS4ADM2C8JF016213</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LS4ADM2C8JF020665</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vin=LS4ADM2C9JF012896</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>api_02</t>
+  </si>
+  <si>
+    <t>api_03</t>
+  </si>
+  <si>
+    <t>api_04</t>
+  </si>
+  <si>
+    <t>api_05</t>
+  </si>
+  <si>
+    <t>api_06</t>
+  </si>
+  <si>
+    <t>api_07</t>
+  </si>
+  <si>
+    <t>api_08</t>
+  </si>
+  <si>
+    <t>api_09</t>
+  </si>
+  <si>
+    <t>api_10</t>
+  </si>
+  <si>
+    <t>api_11</t>
+  </si>
+  <si>
+    <t>api_12</t>
+  </si>
+  <si>
+    <t>api_13</t>
+  </si>
+  <si>
+    <t>api_14</t>
+  </si>
+  <si>
+    <t>api_15</t>
+  </si>
+  <si>
+    <t>api_16</t>
+  </si>
+  <si>
+    <t>api_17</t>
+  </si>
+  <si>
+    <t>api_18</t>
+  </si>
+  <si>
+    <t>api_19</t>
+  </si>
+  <si>
+    <t>api_20</t>
+  </si>
+  <si>
+    <t>api_21</t>
+  </si>
+  <si>
+    <t>api_22</t>
+  </si>
+  <si>
+    <t>api_23</t>
+  </si>
+  <si>
+    <t>api_24</t>
+  </si>
+  <si>
+    <t>api_25</t>
+  </si>
+  <si>
+    <t>api_26</t>
+  </si>
+  <si>
+    <t>api_27</t>
+  </si>
+  <si>
+    <t>api_28</t>
+  </si>
+  <si>
+    <t>api_29</t>
+  </si>
+  <si>
+    <t>api_30</t>
+  </si>
+  <si>
+    <t>api_31</t>
+  </si>
+  <si>
+    <t>api_32</t>
+  </si>
+  <si>
+    <t>api_33</t>
+  </si>
+  <si>
+    <t>api_34</t>
+  </si>
+  <si>
+    <t>api_35</t>
+  </si>
+  <si>
+    <t>api_36</t>
+  </si>
+  <si>
+    <t>api_37</t>
+  </si>
+  <si>
+    <t>api_38</t>
+  </si>
+  <si>
+    <t>api_39</t>
+  </si>
+  <si>
+    <t>api_40</t>
+  </si>
+  <si>
+    <t>api_41</t>
+  </si>
+  <si>
+    <t>api_42</t>
+  </si>
+  <si>
+    <t>api_43</t>
+  </si>
+  <si>
+    <t>api_44</t>
+  </si>
+  <si>
+    <t>api_45</t>
+  </si>
+  <si>
+    <t>api_46</t>
+  </si>
+  <si>
+    <t>api_47</t>
+  </si>
+  <si>
+    <t>api_48</t>
+  </si>
+  <si>
+    <t>api_49</t>
+  </si>
+  <si>
+    <t>api_50</t>
+  </si>
+  <si>
+    <t>api_51</t>
+  </si>
+  <si>
+    <t>api_52</t>
+  </si>
+  <si>
+    <t>api_53</t>
+  </si>
+  <si>
+    <t>api_54</t>
+  </si>
+  <si>
+    <t>api_55</t>
+  </si>
+  <si>
+    <t>api_56</t>
+  </si>
+  <si>
+    <t>api_57</t>
+  </si>
+  <si>
+    <t>api_58</t>
+  </si>
+  <si>
+    <t>api_59</t>
+  </si>
+  <si>
+    <t>api_60</t>
+  </si>
+  <si>
+    <t>api_61</t>
+  </si>
+  <si>
+    <t>api_62</t>
+  </si>
+  <si>
+    <t>api_63</t>
+  </si>
+  <si>
+    <t>api_64</t>
+  </si>
+  <si>
+    <t>api_65</t>
+  </si>
+  <si>
+    <t>api_66</t>
+  </si>
+  <si>
+    <t>api_67</t>
+  </si>
+  <si>
+    <t>EXPECTED</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>BODY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RESULT</t>
+  </si>
+  <si>
+    <t>RESULT_ERR_MSG</t>
     <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TYPE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CODE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MSG</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RESULT</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/data/dataOnlineAnalysis</t>
-  </si>
-  <si>
-    <t>数据概览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ow_01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据上线概览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>POST</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{
- "area": "",
- "entryProvince": "",
- "entryCity": "",
- "powerType": "",
- "driveRangeLevel": "",
- "brand": "",
- "vehCategory": "",
- "startDate": "2020-01",
- "endDate": "2020-11"
-}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"Content-Type":"application/json"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,10 +511,26 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFAB0F3A"/>
-      <name val="Consolas"/>
+      <sz val="11"/>
+      <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="仿宋"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -187,10 +571,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -198,13 +583,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -482,21 +883,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="23.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="52.75" customWidth="1"/>
-    <col min="10" max="10" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="83.75" customWidth="1"/>
+    <col min="6" max="6" width="41.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="33.125" customWidth="1"/>
+    <col min="9" max="9" width="16.75" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="12.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" s="2" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -519,53 +927,2053 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>9</v>
+        <v>128</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>35000</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J4" s="4">
+        <v>10001</v>
+      </c>
+      <c r="K4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4">
+        <v>10001</v>
+      </c>
+      <c r="K5" s="5"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="4">
+        <v>30001</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J7" s="4">
+        <v>40000</v>
+      </c>
+      <c r="K7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J8" s="4">
+        <v>10001</v>
+      </c>
+      <c r="K8" s="5"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J9" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K9" s="5"/>
+    </row>
+    <row r="10" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J11" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J13" s="4">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="4"/>
+      <c r="G14" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J14" s="4">
+        <v>40000</v>
+      </c>
+      <c r="K14" s="5"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J15" s="4">
+        <v>10001</v>
+      </c>
+      <c r="K15" s="5"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J16" s="6">
+        <v>10000</v>
+      </c>
+      <c r="K16" s="5"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J17" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J18" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J19" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J20" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J21" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H22" s="4"/>
+      <c r="I22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G23" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J23" s="4">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A24" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="4"/>
+      <c r="G24" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J24" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J25" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H26" s="6"/>
+      <c r="I26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J26" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J27" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J28" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" s="6" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" ht="156.75" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D29" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E29" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J29" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D30" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G30" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J30" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D31" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G31" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J31" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="4" t="s">
+      <c r="D32" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E32" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J32" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A33" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2">
-        <v>200</v>
+      <c r="D33" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="4">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A34" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E34" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34" s="4"/>
+      <c r="G34" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J34" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A35" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A36" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J36" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="6"/>
+      <c r="I37" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J37" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J38" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H39" s="6"/>
+      <c r="I39" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J39" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A40" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G40" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="6"/>
+      <c r="I40" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J40" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A41" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E41" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J41" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A42" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H42" s="4"/>
+      <c r="I42" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J42" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E43" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G43" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J43" s="4">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A44" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E44" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" s="4"/>
+      <c r="G44" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J44" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A45" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D45" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J45" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A46" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D46" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E46" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G46" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J46" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A47" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G47" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J47" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A48" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G48" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" s="6"/>
+      <c r="I48" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J48" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D49" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H49" s="6"/>
+      <c r="I49" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J49" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D50" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J50" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="6"/>
+      <c r="I51" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J51" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J52" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" s="6"/>
+      <c r="I53" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J53" s="4">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F54" s="4"/>
+      <c r="G54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H54" s="6"/>
+      <c r="I54" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J54" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J55" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A56" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E56" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="G56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J56" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A57" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C57" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E57" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="G57" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J57" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A58" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D58" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="G58" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J58" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A59" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J59" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A60" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G60" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J60" s="4">
+        <v>35000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A61" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="6"/>
+      <c r="I61" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J61" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E62" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J62" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C63" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E63" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G63" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" s="6"/>
+      <c r="I63" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" s="4">
+        <v>30001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="15" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E64" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="4"/>
+      <c r="G64" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H64" s="6"/>
+      <c r="I64" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J64" s="4">
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A65" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E65" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J65" s="4">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A66" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C66" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E66" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G66" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H66" s="6"/>
+      <c r="I66" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J66" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A67" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E67" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J67" s="6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A68" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E68" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G68" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H68" s="6"/>
+      <c r="I68" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J68" s="6">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{519424EF-233A-4769-A3FE-08E5FA4CC676}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{AB45196C-BD43-447D-AFF4-DBE9F84C5929}"/>
+    <hyperlink ref="D4:D6" r:id="rId3" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/battery/status/summary" xr:uid="{BDE0E4BE-487E-4B42-BFF1-63AE62114BAF}"/>
+    <hyperlink ref="D7" r:id="rId4" xr:uid="{D9F61A8E-3504-4888-845B-7657441F07CA}"/>
+    <hyperlink ref="D19" r:id="rId5" xr:uid="{B72BA9D5-3A34-4084-AB80-E81A6A3215BA}"/>
+    <hyperlink ref="D29" r:id="rId6" xr:uid="{36B2CF61-8763-4DCF-A83F-BAC6EC8E09F2}"/>
+    <hyperlink ref="D39" r:id="rId7" xr:uid="{308AC9B0-2FEC-494C-9A52-91963BA1A07B}"/>
+    <hyperlink ref="D49" r:id="rId8" xr:uid="{EB39B7F7-2A57-4AC2-8F5E-F970880A6222}"/>
+    <hyperlink ref="D59" r:id="rId9" xr:uid="{44B9A744-B493-43FD-9C00-964BDA77C08A}"/>
+    <hyperlink ref="D9:D15" r:id="rId10" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/battery/resistance/volt" xr:uid="{AF39846C-D0BB-4997-9B55-A700A3F612E9}"/>
+    <hyperlink ref="D20:D25" r:id="rId11" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/battery/cell/history/info" xr:uid="{915C062F-99EB-4D55-B971-817D3E5AD2AC}"/>
+    <hyperlink ref="D30:D35" r:id="rId12" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/drive/temp/mileage" xr:uid="{04CD4BE0-C792-4E5E-B7E0-AD675AD34F75}"/>
+    <hyperlink ref="D40:D45" r:id="rId13" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/monthly/equivalent/mileage/index" xr:uid="{1762A60D-7BA4-48C5-B206-931CAABE3023}"/>
+    <hyperlink ref="D50:D55" r:id="rId14" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/twice/charge/equivalent/endurance/mileage" xr:uid="{5784D569-072F-48AA-BEF4-93D8BAB3992F}"/>
+    <hyperlink ref="D60:D65" r:id="rId15" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/year/average/drive/mileage" xr:uid="{2A705369-6D65-4BBE-99FC-1EDF9C6E3078}"/>
+    <hyperlink ref="D16" r:id="rId16" xr:uid="{63C5429B-4517-41D8-9DBC-CBE7FBBC17F1}"/>
+    <hyperlink ref="D17" r:id="rId17" xr:uid="{EA516700-BF9B-4284-8CBF-7D10AFAC9C30}"/>
+    <hyperlink ref="D18" r:id="rId18" xr:uid="{0FEA1E15-A841-42EE-B07D-EBCEC53468D7}"/>
+    <hyperlink ref="D26" r:id="rId19" xr:uid="{8E97FF86-6498-4458-ACB8-F01F13AF32C5}"/>
+    <hyperlink ref="D27" r:id="rId20" xr:uid="{6FA7CBFF-C215-4BDA-8F93-184754AE2606}"/>
+    <hyperlink ref="D9" r:id="rId21" xr:uid="{583ADC56-2C03-40C3-90AF-033EF63BF219}"/>
+    <hyperlink ref="D8" r:id="rId22" xr:uid="{8BF67886-4C4F-472A-B7B0-D4CE5BF4C796}"/>
+    <hyperlink ref="D65" r:id="rId23" xr:uid="{9C4F7C77-27E9-402A-8FB7-8F3D644618CD}"/>
+    <hyperlink ref="D28" r:id="rId24" xr:uid="{858D7F80-8CBD-4755-A6A7-3FBD20080F38}"/>
+    <hyperlink ref="D36:D38" r:id="rId25" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/drive/temp/mileage" xr:uid="{0CF5E37E-6766-4794-957B-36028AB2FAE0}"/>
+    <hyperlink ref="D46:D48" r:id="rId26" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/drive/temp/mileage" xr:uid="{E2199EBD-E457-4FB6-BE98-2C990CA49DB1}"/>
+    <hyperlink ref="D56:D58" r:id="rId27" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/drive/temp/mileage" xr:uid="{6A968838-FBC1-4988-B218-003F587CD2B9}"/>
+    <hyperlink ref="D66:D68" r:id="rId28" display="https://saas.bitnei.cn/external-api/vehicle-battery/youcku/vehicle/drive/temp/mileage" xr:uid="{31E4A58F-41A7-4B1E-991E-C32F5D824393}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId29"/>
 </worksheet>
 </file>